--- a/Projekt/Oceny-L5.xlsx
+++ b/Projekt/Oceny-L5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D75A123-F3C0-46CB-AD35-A4DC9017FC7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592F5ED-3373-43F8-974F-9A91CED8747B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Indeks</t>
   </si>
@@ -401,7 +401,7 @@
   <dimension ref="C2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,8 +442,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
@@ -456,8 +459,11 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
@@ -470,8 +476,11 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
@@ -484,8 +493,11 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>2</v>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
@@ -498,8 +510,11 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>2</v>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
@@ -512,8 +527,11 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>2</v>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
@@ -526,8 +544,11 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>2</v>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
@@ -540,8 +561,11 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>2</v>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
@@ -645,8 +669,8 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
+      <c r="G16">
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">

--- a/Projekt/Oceny-L5.xlsx
+++ b/Projekt/Oceny-L5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592F5ED-3373-43F8-974F-9A91CED8747B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2BCB61-82AA-4D18-AD27-84321A814D06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>Ocena Końcowa</t>
   </si>
   <si>
-    <t>Odbijam</t>
-  </si>
-  <si>
     <t>Lp</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="C2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +411,7 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>4.5</v>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -528,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>3.5</v>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -667,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>4.5</v>
@@ -684,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>5</v>
